--- a/ParametrosCostos.xlsx
+++ b/ParametrosCostos.xlsx
@@ -5475,7 +5475,7 @@
   <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
